--- a/FxReportManagement/Equipment.xlsx
+++ b/FxReportManagement/Equipment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Equipment</t>
   </si>
@@ -20,15 +20,6 @@
     <t>Pole Distance</t>
   </si>
   <si>
-    <t>100mm</t>
-  </si>
-  <si>
-    <t>Stage Of Examination</t>
-  </si>
-  <si>
-    <t>WELD + HAZ</t>
-  </si>
-  <si>
     <t>Surface Temperature</t>
   </si>
   <si>
@@ -65,31 +56,16 @@
     <t>Mag Tech</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>Test Medium</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Surface Condition</t>
   </si>
   <si>
     <t>GRINDING</t>
   </si>
   <si>
-    <t>UV Light Intencity</t>
-  </si>
-  <si>
-    <t>W/m2</t>
-  </si>
-  <si>
-    <t>Demagnetization</t>
-  </si>
-  <si>
-    <t>Identification of Light Equipment</t>
+    <t>UV Light Intensity</t>
+  </si>
+  <si>
+    <t>Identication Of Light Equipment</t>
   </si>
   <si>
     <t>***</t>
@@ -98,13 +74,10 @@
     <t>Distance Of Light</t>
   </si>
   <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Heat Treatment</t>
-  </si>
-  <si>
-    <t>Lifting Test Date / Number</t>
+    <t>Lifting Test Date/Number</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>Butt weld</t>
@@ -608,51 +581,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -682,26 +612,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
-        <v>2</v>
+      <c r="C9" s="18" t="n">
+        <v>2.0</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="31" t="s">
-        <v>3</v>
+      <c r="F9" s="31" t="n">
+        <v>5.0</v>
       </c>
       <c r="G9" s="22"/>
-      <c r="H9" s="23" t="s">
-        <v>4</v>
+      <c r="H9" s="23" t="n">
+        <v>7.0</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="25"/>
       <c r="K9" s="32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N9" s="29"/>
     </row>
@@ -711,44 +641,44 @@
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
       <c r="F10" s="48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="42"/>
       <c r="K10" s="49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N10" s="46"/>
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
       <c r="F11" s="65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="59"/>
@@ -759,102 +689,102 @@
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="67"/>
-      <c r="C12" s="68" t="s">
-        <v>17</v>
+      <c r="C12" s="68" t="n">
+        <v>2.0</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="70"/>
-      <c r="F12" s="81" t="s">
-        <v>18</v>
+      <c r="F12" s="81" t="n">
+        <v>5.0</v>
       </c>
       <c r="G12" s="72"/>
-      <c r="H12" s="73" t="s">
-        <v>19</v>
+      <c r="H12" s="73" t="n">
+        <v>7.0</v>
       </c>
       <c r="I12" s="74"/>
       <c r="J12" s="75"/>
       <c r="K12" s="82" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L12" s="77"/>
       <c r="M12" s="78" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N12" s="79"/>
     </row>
     <row r="13">
       <c r="A13" s="97" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13" s="84"/>
-      <c r="C13" s="85" t="s">
-        <v>23</v>
+      <c r="C13" s="85" t="n">
+        <v>2.0</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87"/>
-      <c r="F13" s="98" t="s">
-        <v>24</v>
+      <c r="F13" s="98" t="n">
+        <v>5.0</v>
       </c>
       <c r="G13" s="89"/>
-      <c r="H13" s="90" t="s">
-        <v>19</v>
+      <c r="H13" s="90" t="n">
+        <v>7.0</v>
       </c>
       <c r="I13" s="91"/>
       <c r="J13" s="92"/>
       <c r="K13" s="99" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L13" s="94"/>
       <c r="M13" s="95" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N13" s="96"/>
     </row>
     <row r="14">
       <c r="A14" s="114" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B14" s="101"/>
-      <c r="C14" s="102" t="s">
-        <v>28</v>
+      <c r="C14" s="102" t="n">
+        <v>2.0</v>
       </c>
       <c r="D14" s="103"/>
       <c r="E14" s="104"/>
-      <c r="F14" s="115" t="s">
-        <v>29</v>
+      <c r="F14" s="115" t="n">
+        <v>5.0</v>
       </c>
       <c r="G14" s="106"/>
-      <c r="H14" s="107" t="s">
-        <v>19</v>
+      <c r="H14" s="107" t="n">
+        <v>7.0</v>
       </c>
       <c r="I14" s="108"/>
       <c r="J14" s="109"/>
       <c r="K14" s="116" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L14" s="111"/>
       <c r="M14" s="112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N14" s="113"/>
     </row>
     <row r="15">
       <c r="A15" s="117" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B15" s="118"/>
       <c r="C15" s="119"/>
       <c r="D15" s="120" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E15" s="121"/>
       <c r="F15" s="122"/>
       <c r="G15" s="123"/>
       <c r="H15" s="131" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I15" s="125"/>
       <c r="J15" s="126"/>
@@ -872,11 +802,11 @@
       <c r="F16" s="137"/>
       <c r="G16" s="138"/>
       <c r="H16" s="146" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I16" s="140"/>
       <c r="J16" s="147" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K16" s="142"/>
       <c r="L16" s="143"/>
@@ -892,11 +822,11 @@
       <c r="F17" s="153"/>
       <c r="G17" s="154"/>
       <c r="H17" s="162" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I17" s="156"/>
       <c r="J17" s="163" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="159"/>
@@ -912,11 +842,11 @@
       <c r="F18" s="169"/>
       <c r="G18" s="170"/>
       <c r="H18" s="178" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I18" s="172"/>
       <c r="J18" s="179" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K18" s="174"/>
       <c r="L18" s="175"/>
@@ -932,11 +862,11 @@
       <c r="F19" s="185"/>
       <c r="G19" s="186"/>
       <c r="H19" s="194" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I19" s="188"/>
       <c r="J19" s="195" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K19" s="190"/>
       <c r="L19" s="191"/>
@@ -945,11 +875,11 @@
     </row>
     <row r="20">
       <c r="A20" s="210" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B20" s="197"/>
       <c r="C20" s="198" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" s="199"/>
       <c r="E20" s="200"/>
@@ -965,11 +895,11 @@
     </row>
     <row r="21">
       <c r="A21" s="225" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B21" s="212"/>
       <c r="C21" s="213" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="214"/>
       <c r="E21" s="215"/>
@@ -985,11 +915,11 @@
     </row>
     <row r="22">
       <c r="A22" s="240" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B22" s="227"/>
       <c r="C22" s="228" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" s="229"/>
       <c r="E22" s="230"/>
@@ -1059,6 +989,5 @@
     <mergeCell ref="C22:N22"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>